--- a/doc/API文档.xlsx
+++ b/doc/API文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>接口地址：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get/post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +105,90 @@
   </si>
   <si>
     <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 账号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误编号：0：正确：&gt;0 错误编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号IP服务器秘钥MD5生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 游客登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录服务器会创建游客账号 uuid 密码初始化统一为12345的MD5值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -243,6 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,36 +609,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="68.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -560,13 +652,19 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -574,61 +672,364 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>22</v>
+      <c r="I18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/API文档.xlsx
+++ b/doc/API文档.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="账号服(account_server)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>接口地址：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +190,22 @@
   </si>
   <si>
     <t>游客登录服务器会创建游客账号 uuid 密码初始化统一为12345的MD5值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hallAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -887,148 +904,185 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M16" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M19" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M20" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J20" s="11" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J21" s="13" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M23" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1037,4 +1091,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/API文档.xlsx
+++ b/doc/API文档.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="账号服(account_server)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="大厅服(hall_servver)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,16 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
   <si>
     <t>接口地址：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本地：http://127.0.0.1:3000/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外网：http://123.206.66.19:3000/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +203,86 @@
   </si>
   <si>
     <t>大厅IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地：http://127.0.0.1:9000/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地：http://127.0.0.1:9001/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号&gt;0，需要访问协议 createuser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,13 +305,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -326,10 +430,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -346,8 +453,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -653,71 +785,71 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -727,28 +859,28 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -758,28 +890,28 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -790,41 +922,41 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -834,28 +966,28 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="J12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -865,112 +997,112 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="H13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -980,28 +1112,28 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="J19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,28 +1143,28 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1046,44 +1178,44 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1095,12 +1227,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="8.88671875" style="17"/>
+    <col min="13" max="13" width="33.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="35"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
